--- a/#DSASheetbyArsh (45-60 Days).xlsx
+++ b/#DSASheetbyArsh (45-60 Days).xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1\OneDrive\Desktop\DSA Challenge\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1\OneDrive\Desktop\DSA Chlng\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4702977-76EB-4B3D-9FF9-4300D843B9DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A15FB566-8871-4EA2-B3B6-5121D3C33599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="323">
   <si>
     <t>#CrackYourInternship</t>
   </si>
@@ -1479,7 +1479,7 @@
   <dimension ref="A1:I333"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1662,6 +1662,9 @@
       <c r="C15" s="9" t="s">
         <v>23</v>
       </c>
+      <c r="D15" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="16" spans="1:9" ht="13.2">
       <c r="B16" s="8" t="s">
@@ -1670,6 +1673,9 @@
       <c r="C16" s="9" t="s">
         <v>24</v>
       </c>
+      <c r="D16" t="s">
+        <v>322</v>
+      </c>
       <c r="I16" s="10" t="s">
         <v>13</v>
       </c>
@@ -1681,6 +1687,9 @@
       <c r="C17" s="9" t="s">
         <v>25</v>
       </c>
+      <c r="D17" t="s">
+        <v>322</v>
+      </c>
       <c r="F17" s="10" t="s">
         <v>13</v>
       </c>
@@ -1692,6 +1701,9 @@
       <c r="C18" s="9" t="s">
         <v>26</v>
       </c>
+      <c r="D18" t="s">
+        <v>322</v>
+      </c>
       <c r="E18" s="10" t="s">
         <v>13</v>
       </c>
@@ -1704,6 +1716,9 @@
       <c r="C19" s="9" t="s">
         <v>27</v>
       </c>
+      <c r="D19" t="s">
+        <v>322</v>
+      </c>
       <c r="F19" s="10" t="s">
         <v>13</v>
       </c>
@@ -1714,6 +1729,9 @@
       </c>
       <c r="C20" s="9" t="s">
         <v>28</v>
+      </c>
+      <c r="D20" t="s">
+        <v>322</v>
       </c>
       <c r="F20" s="10" t="s">
         <v>13</v>

--- a/#DSASheetbyArsh (45-60 Days).xlsx
+++ b/#DSASheetbyArsh (45-60 Days).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1\OneDrive\Desktop\DSA Chlng\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A15FB566-8871-4EA2-B3B6-5121D3C33599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BF2845B-FF80-4ADA-8ECA-65C245F80B6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="323">
   <si>
     <t>#CrackYourInternship</t>
   </si>
@@ -1478,8 +1478,8 @@
   </sheetPr>
   <dimension ref="A1:I333"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1744,6 +1744,9 @@
       <c r="C21" s="9" t="s">
         <v>29</v>
       </c>
+      <c r="D21" t="s">
+        <v>322</v>
+      </c>
       <c r="I21" s="10" t="s">
         <v>13</v>
       </c>
@@ -1754,6 +1757,9 @@
       </c>
       <c r="C22" s="9" t="s">
         <v>30</v>
+      </c>
+      <c r="D22" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="23" spans="2:9" ht="13.2">

--- a/#DSASheetbyArsh (45-60 Days).xlsx
+++ b/#DSASheetbyArsh (45-60 Days).xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1\OneDrive\Desktop\DSA Chlng\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BF2845B-FF80-4ADA-8ECA-65C245F80B6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5556B98B-B55E-4065-96BE-D866C14ABDE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="323">
   <si>
     <t>#CrackYourInternship</t>
   </si>
@@ -1206,7 +1206,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1256,6 +1256,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1478,8 +1481,8 @@
   </sheetPr>
   <dimension ref="A1:I333"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1769,6 +1772,9 @@
       <c r="C23" s="9" t="s">
         <v>31</v>
       </c>
+      <c r="D23" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="24" spans="2:9" ht="13.2">
       <c r="B24" s="8" t="s">
@@ -1777,6 +1783,9 @@
       <c r="C24" s="9" t="s">
         <v>32</v>
       </c>
+      <c r="D24" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="25" spans="2:9" ht="13.2">
       <c r="B25" s="8" t="s">
@@ -1785,6 +1794,9 @@
       <c r="C25" s="9" t="s">
         <v>33</v>
       </c>
+      <c r="D25" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="26" spans="2:9" ht="13.2">
       <c r="B26" s="8" t="s">
@@ -1793,6 +1805,9 @@
       <c r="C26" s="9" t="s">
         <v>34</v>
       </c>
+      <c r="D26" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="27" spans="2:9" ht="13.2">
       <c r="B27" s="8" t="s">
@@ -1800,6 +1815,9 @@
       </c>
       <c r="C27" s="9" t="s">
         <v>35</v>
+      </c>
+      <c r="D27" t="s">
+        <v>322</v>
       </c>
       <c r="G27" s="10" t="s">
         <v>13</v>
@@ -1875,6 +1893,9 @@
       <c r="C37" s="9" t="s">
         <v>43</v>
       </c>
+      <c r="D37" t="s">
+        <v>322</v>
+      </c>
       <c r="H37" s="10" t="s">
         <v>13</v>
       </c>
@@ -1886,6 +1907,9 @@
       <c r="C38" s="9" t="s">
         <v>44</v>
       </c>
+      <c r="D38" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="39" spans="2:8" ht="13.2">
       <c r="B39" s="8" t="s">
@@ -1894,6 +1918,9 @@
       <c r="C39" s="9" t="s">
         <v>45</v>
       </c>
+      <c r="D39" t="s">
+        <v>322</v>
+      </c>
       <c r="H39" s="10" t="s">
         <v>13</v>
       </c>
@@ -1905,6 +1932,9 @@
       <c r="C40" s="9" t="s">
         <v>46</v>
       </c>
+      <c r="D40" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="41" spans="2:8" ht="13.2">
       <c r="B41" s="8" t="s">
@@ -1912,6 +1942,9 @@
       </c>
       <c r="C41" s="9" t="s">
         <v>47</v>
+      </c>
+      <c r="D41" t="s">
+        <v>322</v>
       </c>
       <c r="E41" s="10" t="s">
         <v>13</v>
@@ -1927,6 +1960,9 @@
       <c r="C42" s="9" t="s">
         <v>49</v>
       </c>
+      <c r="D42" t="s">
+        <v>322</v>
+      </c>
       <c r="E42" s="10" t="s">
         <v>13</v>
       </c>
@@ -1938,6 +1974,9 @@
       <c r="C43" s="9" t="s">
         <v>50</v>
       </c>
+      <c r="D43" t="s">
+        <v>322</v>
+      </c>
       <c r="E43" s="13"/>
       <c r="H43" s="10" t="s">
         <v>13</v>
@@ -1950,6 +1989,9 @@
       <c r="C44" s="9" t="s">
         <v>51</v>
       </c>
+      <c r="D44" t="s">
+        <v>322</v>
+      </c>
       <c r="E44" s="10" t="s">
         <v>13</v>
       </c>
@@ -1972,6 +2014,9 @@
       <c r="C46" s="9" t="s">
         <v>53</v>
       </c>
+      <c r="D46" t="s">
+        <v>322</v>
+      </c>
       <c r="E46" s="10" t="s">
         <v>13</v>
       </c>
@@ -2021,7 +2066,7 @@
       <c r="C51" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="F51" s="11" t="s">
+      <c r="F51" s="10" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2109,7 +2154,7 @@
       <c r="C62" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="H62" s="11" t="s">
+      <c r="H62" s="10" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2125,7 +2170,7 @@
       </c>
     </row>
     <row r="64" spans="2:8" ht="13.2">
-      <c r="H64" s="11" t="s">
+      <c r="H64" s="10" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2174,7 +2219,7 @@
       <c r="C70" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="H70" s="5" t="s">
+      <c r="H70" s="10" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2305,7 +2350,7 @@
       <c r="C85" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="E85" s="5" t="s">
+      <c r="E85" s="10" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2324,7 +2369,7 @@
       <c r="C87" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="I87" s="11" t="s">
+      <c r="I87" s="10" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2455,7 +2500,7 @@
       <c r="C102" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="H102" s="11" t="s">
+      <c r="H102" s="10" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2469,7 +2514,7 @@
       <c r="H103" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="I103" s="11" t="s">
+      <c r="I103" s="10" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2508,10 +2553,10 @@
       <c r="C107" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="H107" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I107" s="11" t="s">
+      <c r="H107" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I107" s="10" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2538,7 +2583,7 @@
       <c r="C110" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="F110" s="11" t="s">
+      <c r="F110" s="10" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2565,7 +2610,7 @@
       <c r="C113" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="I113" s="11" t="s">
+      <c r="I113" s="10" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2576,7 +2621,7 @@
       <c r="C114" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="H114" s="11" t="s">
+      <c r="H114" s="10" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2619,7 +2664,7 @@
       <c r="C119" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="F119" s="11" t="s">
+      <c r="F119" s="10" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2630,7 +2675,7 @@
       <c r="C120" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="I120" s="11" t="s">
+      <c r="I120" s="10" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2670,7 +2715,7 @@
       <c r="C126" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="E126" s="11" t="s">
+      <c r="E126" s="10" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2681,10 +2726,10 @@
       <c r="C127" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="G127" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I127" s="11" t="s">
+      <c r="G127" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I127" s="10" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2703,7 +2748,7 @@
       <c r="C129" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="H129" s="11" t="s">
+      <c r="H129" s="10" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2730,7 +2775,7 @@
       <c r="C132" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="I132" s="11" t="s">
+      <c r="I132" s="10" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2741,7 +2786,7 @@
       <c r="C133" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="E133" s="11" t="s">
+      <c r="E133" s="10" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2752,7 +2797,7 @@
       <c r="C134" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="G134" s="11" t="s">
+      <c r="G134" s="10" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2763,7 +2808,7 @@
       <c r="C135" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="H135" s="11" t="s">
+      <c r="H135" s="10" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2782,7 +2827,7 @@
       <c r="C137" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="E137" s="11" t="s">
+      <c r="E137" s="10" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2801,10 +2846,10 @@
       <c r="C139" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="G139" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H139" s="11" t="s">
+      <c r="G139" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H139" s="10" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2815,7 +2860,7 @@
       <c r="C140" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="I140" s="11" t="s">
+      <c r="I140" s="10" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2828,7 +2873,7 @@
       </c>
     </row>
     <row r="142" spans="2:9" ht="13.2">
-      <c r="G142" s="11" t="s">
+      <c r="G142" s="10" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2853,7 +2898,7 @@
       <c r="C145" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="F145" s="11" t="s">
+      <c r="F145" s="10" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2864,10 +2909,10 @@
       <c r="C146" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="F146" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I146" s="11" t="s">
+      <c r="F146" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I146" s="10" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2887,10 +2932,10 @@
       <c r="C148" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="D148" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F148" s="11" t="s">
+      <c r="D148" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F148" s="10" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2925,10 +2970,10 @@
       <c r="C152" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="G152" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I152" s="11" t="s">
+      <c r="G152" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I152" s="10" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2947,7 +2992,7 @@
       <c r="C154" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="D154" s="11" t="s">
+      <c r="D154" s="10" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2974,10 +3019,10 @@
       <c r="C157" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="G157" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I157" s="11" t="s">
+      <c r="G157" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I157" s="10" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2988,7 +3033,7 @@
       <c r="C158" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="I158" s="11" t="s">
+      <c r="I158" s="10" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3047,7 +3092,7 @@
       <c r="C165" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="I165" s="5" t="s">
+      <c r="I165" s="10" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3058,7 +3103,7 @@
       <c r="C166" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="E166" s="11" t="s">
+      <c r="E166" s="10" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3093,7 +3138,7 @@
       <c r="C170" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="I170" s="11" t="s">
+      <c r="I170" s="10" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3104,10 +3149,10 @@
       <c r="C171" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="F171" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H171" s="11" t="s">
+      <c r="F171" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H171" s="10" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3118,13 +3163,13 @@
       <c r="C172" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="E172" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H172" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I172" s="11" t="s">
+      <c r="E172" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H172" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I172" s="10" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3135,7 +3180,7 @@
       <c r="C173" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="H173" s="11" t="s">
+      <c r="H173" s="10" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3146,13 +3191,13 @@
       <c r="C174" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="G174" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H174" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I174" s="11" t="s">
+      <c r="G174" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H174" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I174" s="10" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3179,7 +3224,7 @@
       <c r="C177" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="F177" s="11" t="s">
+      <c r="F177" s="10" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3190,7 +3235,7 @@
       <c r="C178" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="E178" s="11" t="s">
+      <c r="E178" s="10" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3201,7 +3246,7 @@
       <c r="C179" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="H179" s="11" t="s">
+      <c r="H179" s="10" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3220,10 +3265,10 @@
       <c r="C181" s="21" t="s">
         <v>180</v>
       </c>
-      <c r="F181" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I181" s="11" t="s">
+      <c r="F181" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I181" s="10" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3242,7 +3287,7 @@
       <c r="C183" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="G183" s="11" t="s">
+      <c r="G183" s="10" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3253,7 +3298,7 @@
       <c r="C184" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="H184" s="11" t="s">
+      <c r="H184" s="10" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3264,10 +3309,10 @@
       <c r="C185" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="F185" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G185" s="11" t="s">
+      <c r="F185" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="G185" s="27" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3278,7 +3323,7 @@
       <c r="C186" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="F186" s="11" t="s">
+      <c r="F186" s="27" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3289,7 +3334,7 @@
       <c r="C187" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="F187" s="11" t="s">
+      <c r="F187" s="27" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3300,7 +3345,7 @@
       <c r="C188" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="F188" s="11" t="s">
+      <c r="F188" s="27" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3319,7 +3364,7 @@
       <c r="C190" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="I190" s="11" t="s">
+      <c r="I190" s="27" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3344,7 +3389,7 @@
       <c r="C194" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="G194" s="11" t="s">
+      <c r="G194" s="27" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3355,7 +3400,7 @@
       <c r="C195" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="E195" s="11" t="s">
+      <c r="E195" s="27" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3366,6 +3411,7 @@
       <c r="C196" s="9" t="s">
         <v>194</v>
       </c>
+      <c r="G196" s="27"/>
     </row>
     <row r="197" spans="2:7" ht="13.2">
       <c r="B197" s="8" t="s">
@@ -3374,7 +3420,7 @@
       <c r="C197" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="G197" s="11" t="s">
+      <c r="G197" s="27" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3409,7 +3455,7 @@
       <c r="C201" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="E201" s="11" t="s">
+      <c r="E201" s="27" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3420,7 +3466,7 @@
       <c r="C202" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="E202" s="11" t="s">
+      <c r="E202" s="27" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3431,7 +3477,7 @@
       <c r="C203" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="E203" s="11" t="s">
+      <c r="E203" s="27" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3442,10 +3488,10 @@
       <c r="C204" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="E204" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G204" s="11" t="s">
+      <c r="E204" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="G204" s="27" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3472,7 +3518,7 @@
       <c r="C207" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="E207" s="11" t="s">
+      <c r="E207" s="27" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3523,7 +3569,7 @@
       <c r="C213" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="G213" s="11" t="s">
+      <c r="G213" s="27" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3558,7 +3604,7 @@
       <c r="C217" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="I217" s="11" t="s">
+      <c r="I217" s="27" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3569,10 +3615,10 @@
       <c r="C218" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="F218" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H218" s="11" t="s">
+      <c r="F218" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H218" s="27" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3599,7 +3645,7 @@
       <c r="C221" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="E221" s="11" t="s">
+      <c r="E221" s="27" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3618,10 +3664,10 @@
       <c r="C223" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="H223" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I223" s="11" t="s">
+      <c r="H223" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="I223" s="27" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3632,7 +3678,7 @@
       <c r="C224" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="G224" s="11" t="s">
+      <c r="G224" s="27" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3643,7 +3689,7 @@
       <c r="C225" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="G225" s="11" t="s">
+      <c r="G225" s="27" t="s">
         <v>13</v>
       </c>
       <c r="I225" s="5" t="s">
@@ -3666,13 +3712,13 @@
       <c r="C227" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="G227" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H227" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I227" s="11" t="s">
+      <c r="G227" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H227" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="I227" s="27" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3725,7 +3771,7 @@
       <c r="C234" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="E234" s="11" t="s">
+      <c r="E234" s="27" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3736,7 +3782,7 @@
       <c r="C235" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="E235" s="11" t="s">
+      <c r="E235" s="27" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3747,7 +3793,7 @@
       <c r="C236" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="E236" s="11" t="s">
+      <c r="E236" s="27" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3758,7 +3804,7 @@
       <c r="C237" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="E237" s="11" t="s">
+      <c r="E237" s="27" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3855,7 +3901,7 @@
       <c r="C250" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="G250" s="11" t="s">
+      <c r="G250" s="27" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3882,7 +3928,7 @@
       <c r="C253" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="E253" s="11" t="s">
+      <c r="E253" s="27" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3927,7 +3973,7 @@
       <c r="C259" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="F259" s="11" t="s">
+      <c r="F259" s="27" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3938,7 +3984,7 @@
       <c r="C260" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="I260" s="11" t="s">
+      <c r="I260" s="27" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3949,7 +3995,7 @@
       <c r="C261" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="H261" s="11" t="s">
+      <c r="H261" s="27" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3976,7 +4022,7 @@
       <c r="C264" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="E264" s="11" t="s">
+      <c r="E264" s="27" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3987,7 +4033,7 @@
       <c r="C265" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="E265" s="11" t="s">
+      <c r="E265" s="27" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3999,7 +4045,7 @@
         <v>262</v>
       </c>
       <c r="E266" s="11"/>
-      <c r="I266" s="11" t="s">
+      <c r="I266" s="27" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4010,10 +4056,10 @@
       <c r="C267" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="E267" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H267" s="11" t="s">
+      <c r="E267" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H267" s="27" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4024,7 +4070,7 @@
       <c r="C268" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="H268" s="11" t="s">
+      <c r="H268" s="27" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4044,7 +4090,7 @@
       <c r="C270" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="H270" s="11" t="s">
+      <c r="H270" s="27" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4055,7 +4101,7 @@
       <c r="C271" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="F271" s="11" t="s">
+      <c r="F271" s="27" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4098,7 +4144,7 @@
       <c r="C276" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="H276" s="11" t="s">
+      <c r="H276" s="27" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4125,7 +4171,7 @@
       <c r="C279" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="F279" s="11" t="s">
+      <c r="F279" s="27" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4144,7 +4190,7 @@
       <c r="C281" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="I281" s="11" t="s">
+      <c r="I281" s="27" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4155,7 +4201,7 @@
       <c r="C282" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="E282" s="11" t="s">
+      <c r="E282" s="27" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4166,7 +4212,7 @@
       <c r="C283" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="E283" s="11" t="s">
+      <c r="E283" s="27" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4177,7 +4223,7 @@
       <c r="C284" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="E284" s="11" t="s">
+      <c r="E284" s="27" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4188,7 +4234,7 @@
       <c r="C285" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="E285" s="11" t="s">
+      <c r="E285" s="27" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4211,7 +4257,7 @@
     <row r="288" spans="2:9" ht="13.2">
       <c r="B288" s="6"/>
       <c r="C288" s="6"/>
-      <c r="I288" s="11" t="s">
+      <c r="I288" s="27" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4228,7 +4274,7 @@
       <c r="C290" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H290" s="11" t="s">
+      <c r="H290" s="27" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4285,7 +4331,7 @@
       <c r="C298" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="I298" s="11" t="s">
+      <c r="I298" s="27" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4304,7 +4350,7 @@
       <c r="C300" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="H300" s="11" t="s">
+      <c r="H300" s="27" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4315,7 +4361,7 @@
       <c r="C301" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="H301" s="11" t="s">
+      <c r="H301" s="27" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4326,7 +4372,7 @@
       <c r="C302" s="9" t="s">
         <v>294</v>
       </c>
-      <c r="H302" s="11" t="s">
+      <c r="H302" s="27" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4337,7 +4383,7 @@
       <c r="C303" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="H303" s="11" t="s">
+      <c r="H303" s="27" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4360,7 +4406,7 @@
     <row r="306" spans="2:9" ht="13.2">
       <c r="B306" s="6"/>
       <c r="C306" s="6"/>
-      <c r="I306" s="11" t="s">
+      <c r="I306" s="27" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4389,6 +4435,9 @@
       <c r="C310" s="9" t="s">
         <v>300</v>
       </c>
+      <c r="D310" s="27" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="311" spans="2:9" ht="13.2">
       <c r="B311" s="8" t="s">
@@ -4397,10 +4446,10 @@
       <c r="C311" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="D311" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I311" s="11" t="s">
+      <c r="D311" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="I311" s="27" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4435,7 +4484,7 @@
       <c r="C315" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="H315" s="11" t="s">
+      <c r="H315" s="27" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4454,7 +4503,7 @@
       <c r="C317" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="D317" s="11" t="s">
+      <c r="D317" s="27" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4465,7 +4514,7 @@
       <c r="C318" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="F318" s="11" t="s">
+      <c r="F318" s="27" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4484,7 +4533,7 @@
       <c r="C320" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="H320" s="11" t="s">
+      <c r="H320" s="27" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4504,7 +4553,7 @@
       <c r="C322" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="H322" s="11" t="s">
+      <c r="H322" s="27" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4515,7 +4564,7 @@
       <c r="C323" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="H323" s="11" t="s">
+      <c r="H323" s="27" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4526,7 +4575,7 @@
       <c r="C324" s="9" t="s">
         <v>314</v>
       </c>
-      <c r="E324" s="11" t="s">
+      <c r="E324" s="27" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4563,7 +4612,7 @@
       <c r="C329" s="9" t="s">
         <v>319</v>
       </c>
-      <c r="D329" s="11" t="s">
+      <c r="D329" s="27" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4574,7 +4623,7 @@
       <c r="C330" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="G330" s="11" t="s">
+      <c r="G330" s="27" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4593,12 +4642,12 @@
       <c r="C332" s="9" t="s">
         <v>321</v>
       </c>
-      <c r="H332" s="11" t="s">
+      <c r="H332" s="27" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="333" spans="2:8" ht="13.2">
-      <c r="E333" s="11" t="s">
+      <c r="E333" s="27" t="s">
         <v>13</v>
       </c>
     </row>
